--- a/training_log/Book1.xlsx
+++ b/training_log/Book1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Epoch</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Overall acc</t>
+  </si>
+  <si>
+    <t>resume training with increase drop, lower lr, increase weight decay, add lr scheduler</t>
+  </si>
+  <si>
+    <t>best model</t>
   </si>
 </sst>
 </file>
@@ -1200,13 +1206,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1277,7 +1283,7 @@
         <v>0.8003</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1299,8 +1305,11 @@
       <c r="G4">
         <v>0.7984</v>
       </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1322,8 +1331,29 @@
       <c r="G5">
         <v>0.7872</v>
       </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1345,8 +1375,32 @@
       <c r="G6">
         <v>0.8402</v>
       </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0.8266</v>
+      </c>
+      <c r="L6">
+        <v>0.68854</v>
+      </c>
+      <c r="M6">
+        <v>0.9048</v>
+      </c>
+      <c r="N6">
+        <v>0.8857</v>
+      </c>
+      <c r="O6">
+        <v>1.2902</v>
+      </c>
+      <c r="P6">
+        <v>0.8264</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1368,8 +1422,29 @@
       <c r="G7">
         <v>0.8018</v>
       </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0.7634</v>
+      </c>
+      <c r="L7">
+        <v>0.686</v>
+      </c>
+      <c r="M7">
+        <v>0.9268</v>
+      </c>
+      <c r="N7">
+        <v>0.8969</v>
+      </c>
+      <c r="O7">
+        <v>1.3121</v>
+      </c>
+      <c r="P7">
+        <v>0.8366</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1390,6 +1465,19 @@
       </c>
       <c r="G8">
         <v>0.8018</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="10:10">
+      <c r="J9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="10:10">
+      <c r="J10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/training_log/Book1.xlsx
+++ b/training_log/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8555"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Epoch</t>
   </si>
@@ -55,6 +55,9 @@
   <si>
     <t>best model</t>
   </si>
+  <si>
+    <t>finetuning (increase drop/weight decay, lower lr, add lr scheduler)</t>
+  </si>
 </sst>
 </file>
 
@@ -66,10 +69,17 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -539,16 +549,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,120 +564,126 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -948,6 +961,3634 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Overall acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1"/>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:hueOff val="-1670000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="1"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$13:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.7336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="1"/>
+        <c:axId val="516443305"/>
+        <c:axId val="672842648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="516443305"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672842648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="672842648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516443305"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{82cc536e-826a-49d6-a520-dd456ae990d8}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1"/>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:hueOff val="-1670000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="1"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$13:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.9266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5356</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="1"/>
+        <c:axId val="797643224"/>
+        <c:axId val="482452521"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="797643224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482452521"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="482452521"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="797643224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1"/>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:hueOff val="-1670000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="1"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$13:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.9266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5356</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="1"/>
+        <c:axId val="759457223"/>
+        <c:axId val="389409959"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="759457223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389409959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="389409959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="759457223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Overall acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1"/>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:hueOff val="-1670000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="1"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$13:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.7336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="1"/>
+        <c:axId val="248042263"/>
+        <c:axId val="13575917"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="248042263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13575917"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="13575917"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="248042263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10033">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:hueOff val="-1670000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10033">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:hueOff val="-1670000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10033">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:hueOff val="-1670000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10033">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:hueOff val="-1670000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>490220</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>439420</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8415020" y="1602740"/>
+        <a:ext cx="4826000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8483600" y="1148080"/>
+        <a:ext cx="4826000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>383540</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>332740</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8917940" y="1651000"/>
+        <a:ext cx="4826000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8636000" y="1879600"/>
+        <a:ext cx="4826000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1206,10 +4847,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1480,8 +5121,150 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11" spans="8:8">
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9">
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1.9266</v>
+      </c>
+      <c r="G13">
+        <v>0.7336</v>
+      </c>
+      <c r="H13">
+        <v>1.9266</v>
+      </c>
+      <c r="I13">
+        <v>0.7336</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1.4166</v>
+      </c>
+      <c r="G14">
+        <v>0.8003</v>
+      </c>
+      <c r="H14">
+        <v>1.4166</v>
+      </c>
+      <c r="I14">
+        <v>0.8003</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1.5356</v>
+      </c>
+      <c r="G15">
+        <v>0.7984</v>
+      </c>
+      <c r="H15">
+        <v>1.5356</v>
+      </c>
+      <c r="I15">
+        <v>0.7984</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>1.6968</v>
+      </c>
+      <c r="G16">
+        <v>0.7872</v>
+      </c>
+      <c r="H16">
+        <v>1.6968</v>
+      </c>
+      <c r="I16">
+        <v>0.7872</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.2497</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.8402</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.2497</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.8402</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>1.8703</v>
+      </c>
+      <c r="G18">
+        <v>0.8018</v>
+      </c>
+      <c r="H18">
+        <v>1.2902</v>
+      </c>
+      <c r="I18">
+        <v>0.8264</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>1.8703</v>
+      </c>
+      <c r="G19">
+        <v>0.8018</v>
+      </c>
+      <c r="H19">
+        <v>1.3121</v>
+      </c>
+      <c r="I19">
+        <v>0.8366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>